--- a/ETL/Reviews.xlsx
+++ b/ETL/Reviews.xlsx
@@ -16,7 +16,7 @@
     <t>Reviews</t>
   </si>
   <si>
-    <t>This story starts at the end ! So the film's opening credits advise us. Unfortunately that's not true as we then are treated to around 70 minutes of a typical B science fiction movie of the 1950's. The story is dreary; the plot is very weak and has clearly been filmed on a low budget, as was often the case in those days.&lt;br /&gt;&lt;br /&gt;The story could have covered any situation where people are taking refuge in an isolated house and being threatened by someone outside. it just happened to be adapted to fit round a sci-fi story.&lt;br /&gt;&lt;br /&gt;The scenery consisted of a few rocks, bushes, and smoke. - Oh yes there was a pool of water as well. Someone wore a rubber mask with a beak like face and what looked like feathers.&lt;br /&gt;&lt;br /&gt;Written by Lou Rusoff, who penned several sci-fi stories around that time including The She Creature and It Conquered The World The filming was completed in a matter of days, not allowing the actors time to develop their characters to better advantage. The low budget restraints also prevented this film reaching its potential. It could have been a much better film than it turned out to be.&lt;br /&gt;&lt;br /&gt;Mike Connors and Richard Denning brought some life to the film, but even they could not lift this film into the category where you could say- 'I enjoyed that film' Richard Denning's acting career began in 1937. He starred with Gregory Peck and Deborah Kerr in An Affair to Remember and later became more well known on television in the series Hawaii Five-O and The Flying Doctor series.&lt;br /&gt;&lt;br /&gt;Directed by Roger Corman who has many films to his credit both as a director and producer. He has made some good films and is still making them. He became very well known for his direction of films from the stories of Edgar Allan Poe, often starring Vincent Price. He also made other low budget films; some were good and entertaining for one reason or another, and most were much better than this.&lt;br /&gt;&lt;br /&gt;I would not recommend this film to anyone.&lt;br /&gt;&lt;br /&gt;Darnmay &lt;br /&gt;&lt;br /&gt;10th September 2007</t>
+    <t>Rarely does one find a movie so bad that it achieves the often-sought paradigm of having so little redeeming value that that alone makes it worth watching. "Cyclone," I am happy to report, is such a film.&lt;br /&gt;&lt;br /&gt;I knew I was in for something good as soon as I found the videotape. I am at least its fourth owner: It has a "Used Movie Sale! $9.95" sticker on the front, and a yard-sale sticker for one dollar. I picked it up at a thrift store for fifty cents.&lt;br /&gt;&lt;br /&gt;The Used Movie Sale! sticker covers much of the front cover artwork, meaning that what I see is a truly odd blended still of the front of the Cyclone super bike, a car flipping over on fire, and Heather Thomas, wearing Flouncy Eighties Hair with her mouth open in an expression that says, "I \'ave a \'ooth ache." I saw that and thought, "All RIGHT." The case, honestly, was enough ("with nowhere to turn and no one to trust, Teri is plunged headlong into a maze of danger and deceit"), but I surprised myself by actually getting around to watching it. I always make time for the really bad films. That "Fight Club" tape can wait.&lt;br /&gt;&lt;br /&gt;Meet Teri. Teri is a stunningly well-crafted character, as we can tell from her introduction, in which she and her friend do exercises that highlight her breasts and, later, her legwarmers. Then Teri goes off to hook up with her boyfriend for the evening that goes horribly wrong. Before she knows it, Teri is driven "straight into a web of deadly double-crosses in CYCLONE." The VHS box tells it like it is.&lt;br /&gt;&lt;br /&gt;Left out of the box summary - perhaps out of some faint hope that actual copies of this film would be sold - is how awful the acting is. It might have been just me, but I kept thinking I could read the characters\' thoughts through their eyes. "This is dumb," thinks Heather Thomas. "I know," thinks Bad Guy with Too-Wide Mouth.&lt;br /&gt;&lt;br /&gt;A driving force (no pun intended) for the second half of this epic picture are the car chases. Those were actually pretty good, although I\'m inclined that gasoline doesn\'t need coaching on how to explode. What really impressed me is that, in all the chases, the streets were pretty much empty. It\'s like there are only twenty people in this huge city.&lt;br /&gt;&lt;br /&gt;I know what you\'re thinking. You\'re thinking, "Gee Wilikers! I have to see this movie!" The sad thing, though, is that you can\'t find it. Oh no. "Cyclone" is a film that finds YOU. Just wait. Some day - perhaps during lunch, perhaps late in the evening, perhaps "when military scientist Jeffery Combs (\'Re-Animator\')is murdered by hired assassins" - you will hear the rustle of legwarmers, and know that it is time.</t>
   </si>
   <si>
     <t>Alain Resnais directs three parallel stories that have to do with fantasy and imagination in the adult world. In one of them is a sort of Operatic bordello story where a rejected architect attempts to manipulate a group of people into throes of happiness--only his attempt misses it's only real target, the woman that he pines after. In the same unfinished chÃ¢teau he built, a group of teachers search for love in a more modern story, as one woman believes ineffably in the role of romance and the cynical anthropoligist tries to teach her a lesson by setting her up with the biggest jerk in the group. Meanwhile, a bunch of kids fantasize a George Melies-like adventure of a prince that saves a girl in distress from swamp creatures and then kills the evil king, bringing upon the kingdom of love. The two primary themes? Life is a fairy tale, and Life isn't a fairy tale.&lt;br /&gt;&lt;br /&gt;Which sounds better than the movie actually is. Resnais is the type of director where oftentimes the concept is good or bad, but the exposition is what matters; here, the concept is great but the movie is downright painful to watch. Horridly off-tune songs, bubbly characters without an ounce of dimension, backdrops of sickening pastel--instead of giving your inner child an ice cream cone, Resnais drowns it in a bucket of cake frosting. Add some French philosophy and you get a weird witches brew, one that doesn't bubble bubble toil and trouble, but just kinda sits wrong in your stomach until you want to regurgitate it.&lt;br /&gt;&lt;br /&gt;Resnais is a risk-taking director, and even in his worst you can see he's trying something that might not work with full clarity of action. In I Want to Go Home, he manages to pull past annoying characters and ditzy set-pieces by showing some real change and having a moment few moments of quiet to catch his breath. Here he submerges directly into a fantasy that doesn't really reflect fantasy, only its baby's room wallpaper reference. The biggest problem is that he somehow managed to make a movie more flamboyant than an 80s pop video, and more kitsch than Golden Era Hollywood musicals. The fantasies are beyond childish and naive, but the movie (with nudity and profanity) is definitely aimed for adults, a target he decidedly missed.&lt;br /&gt;&lt;br /&gt;However, he sticks closely to his theme and never backpedals. If anything, this movie is impressive simply because its unapologetic.&lt;br /&gt;&lt;br /&gt;--PolarisDiB</t>
@@ -38,13 +38,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -71,7 +76,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -79,6 +84,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -311,27 +319,27 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
